--- a/Balancing book.xlsx
+++ b/Balancing book.xlsx
@@ -427,7 +427,7 @@
   <dimension ref="B2:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -689,7 +689,7 @@
         <v>20</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>20</v>
@@ -764,35 +764,35 @@
       </c>
       <c r="E12">
         <f>D13</f>
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="F12">
         <f t="shared" ref="F12:L12" si="2">E13</f>
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="J12">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>520</v>
       </c>
       <c r="K12">
         <f t="shared" si="2"/>
-        <v>640</v>
+        <v>580</v>
       </c>
       <c r="L12">
         <f t="shared" si="2"/>
-        <v>760</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13" spans="2:12">
@@ -802,39 +802,39 @@
       </c>
       <c r="D13">
         <f>D12 - (D10*3) + (D11*3)</f>
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="E13">
         <f t="shared" ref="E13" si="3">E12 - (E10*3) + (E11*3)</f>
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="F13">
         <f t="shared" ref="F13" si="4">F12 - (F10*3) + (F11*3)</f>
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="G13">
         <f t="shared" ref="G13" si="5">G12 - (G10*3) + (G11*3)</f>
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="H13">
         <f t="shared" ref="H13" si="6">H12 - (H10*3) + (H11*3)</f>
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="I13">
         <f t="shared" ref="I13" si="7">I12 - (I10*3) + (I11*3)</f>
-        <v>580</v>
+        <v>520</v>
       </c>
       <c r="J13">
         <f t="shared" ref="J13" si="8">J12 - (J10*3) + (J11*3)</f>
-        <v>640</v>
+        <v>580</v>
       </c>
       <c r="K13">
         <f t="shared" ref="K13" si="9">K12 - (K10*3) + (K11*3)</f>
-        <v>760</v>
+        <v>700</v>
       </c>
       <c r="L13">
         <f t="shared" ref="L13" si="10">L12 - (L10*3) + (L11*3)</f>
-        <v>790</v>
+        <v>730</v>
       </c>
     </row>
     <row r="16" spans="2:12">

--- a/Balancing book.xlsx
+++ b/Balancing book.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="43">
   <si>
     <t>Week 1</t>
   </si>
@@ -72,6 +72,87 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>FV</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
+  </si>
+  <si>
+    <t>Week 18</t>
+  </si>
+  <si>
+    <t>Week 19</t>
+  </si>
+  <si>
+    <t>Week 20</t>
+  </si>
+  <si>
+    <t>Week 21</t>
+  </si>
+  <si>
+    <t>Week 22</t>
+  </si>
+  <si>
+    <t>Week 23</t>
+  </si>
+  <si>
+    <t>Week 24</t>
+  </si>
+  <si>
+    <t>Week 25</t>
+  </si>
+  <si>
+    <t>Week 26</t>
+  </si>
+  <si>
+    <t>Week 27</t>
+  </si>
+  <si>
+    <t>Week 28</t>
+  </si>
+  <si>
+    <t>Week 29</t>
+  </si>
+  <si>
+    <t>Week 30</t>
   </si>
 </sst>
 </file>
@@ -424,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF305E79-E277-467C-8EE1-27369C8F0165}">
-  <dimension ref="B2:L20"/>
+  <dimension ref="B2:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -436,6 +517,9 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -650,6 +734,9 @@
       </c>
     </row>
     <row r="9" spans="2:12">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -837,6 +924,29 @@
         <v>730</v>
       </c>
     </row>
+    <row r="15" spans="2:12">
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="16" spans="2:12">
       <c r="C16" t="s">
         <v>0</v>
@@ -1025,6 +1135,1157 @@
         <v>1300</v>
       </c>
     </row>
+    <row r="24" spans="2:12">
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>240</v>
+      </c>
+      <c r="D25">
+        <v>240</v>
+      </c>
+      <c r="E25">
+        <v>240</v>
+      </c>
+      <c r="F25">
+        <v>240</v>
+      </c>
+      <c r="G25">
+        <v>240</v>
+      </c>
+      <c r="H25">
+        <v>240</v>
+      </c>
+      <c r="I25">
+        <v>150</v>
+      </c>
+      <c r="J25">
+        <v>150</v>
+      </c>
+      <c r="K25">
+        <v>150</v>
+      </c>
+      <c r="L25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>320</v>
+      </c>
+      <c r="D26">
+        <v>320</v>
+      </c>
+      <c r="E26">
+        <v>370</v>
+      </c>
+      <c r="F26">
+        <v>430</v>
+      </c>
+      <c r="G26">
+        <v>470</v>
+      </c>
+      <c r="H26">
+        <v>320</v>
+      </c>
+      <c r="I26">
+        <v>320</v>
+      </c>
+      <c r="J26">
+        <v>320</v>
+      </c>
+      <c r="K26">
+        <v>320</v>
+      </c>
+      <c r="L26">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>300</v>
+      </c>
+      <c r="D27">
+        <f>C28</f>
+        <v>540</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27:L27" si="20">D28</f>
+        <v>780</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="20"/>
+        <v>1170</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="20"/>
+        <v>1740</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="20"/>
+        <v>2430</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="20"/>
+        <v>2670</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="20"/>
+        <v>3180</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="20"/>
+        <v>3690</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="20"/>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="C28">
+        <f>C27 - (C25*3) + (C26*3)</f>
+        <v>540</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:L28" si="21">D27 - (D25*3) + (D26*3)</f>
+        <v>780</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="21"/>
+        <v>1170</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="21"/>
+        <v>1740</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="21"/>
+        <v>2430</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="21"/>
+        <v>2670</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="21"/>
+        <v>3180</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="21"/>
+        <v>3690</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="21"/>
+        <v>4200</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="21"/>
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>280</v>
+      </c>
+      <c r="D32">
+        <v>200</v>
+      </c>
+      <c r="E32">
+        <v>200</v>
+      </c>
+      <c r="F32">
+        <v>280</v>
+      </c>
+      <c r="G32">
+        <v>280</v>
+      </c>
+      <c r="H32">
+        <v>280</v>
+      </c>
+      <c r="I32">
+        <v>280</v>
+      </c>
+      <c r="J32">
+        <v>280</v>
+      </c>
+      <c r="K32">
+        <v>280</v>
+      </c>
+      <c r="L32">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>360</v>
+      </c>
+      <c r="D33">
+        <v>360</v>
+      </c>
+      <c r="E33">
+        <v>360</v>
+      </c>
+      <c r="F33">
+        <v>360</v>
+      </c>
+      <c r="G33">
+        <v>550</v>
+      </c>
+      <c r="H33">
+        <v>550</v>
+      </c>
+      <c r="I33">
+        <v>550</v>
+      </c>
+      <c r="J33">
+        <v>150</v>
+      </c>
+      <c r="K33">
+        <v>150</v>
+      </c>
+      <c r="L33">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>300</v>
+      </c>
+      <c r="D34">
+        <f>C35</f>
+        <v>540</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:L34" si="22">D35</f>
+        <v>1020</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="22"/>
+        <v>1500</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="22"/>
+        <v>1740</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="22"/>
+        <v>2550</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="22"/>
+        <v>3360</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="22"/>
+        <v>4170</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="22"/>
+        <v>3780</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="22"/>
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="C35">
+        <f>C34 - (C32*3) + (C33*3)</f>
+        <v>540</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35" si="23">D34 - (D32*3) + (D33*3)</f>
+        <v>1020</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35:K35" si="24">E34 - (E32*3) + (E33*3)</f>
+        <v>1500</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="24"/>
+        <v>1740</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="24"/>
+        <v>2550</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="24"/>
+        <v>3360</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="24"/>
+        <v>4170</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="24"/>
+        <v>3780</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="24"/>
+        <v>3390</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ref="L35" si="25">L34 - (L32*3) + (L33*3)</f>
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>280</v>
+      </c>
+      <c r="D39">
+        <v>200</v>
+      </c>
+      <c r="E39">
+        <v>240</v>
+      </c>
+      <c r="F39">
+        <v>240</v>
+      </c>
+      <c r="G39">
+        <v>280</v>
+      </c>
+      <c r="H39">
+        <v>280</v>
+      </c>
+      <c r="I39">
+        <v>280</v>
+      </c>
+      <c r="J39">
+        <v>150</v>
+      </c>
+      <c r="K39">
+        <v>150</v>
+      </c>
+      <c r="L39">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>360</v>
+      </c>
+      <c r="D40">
+        <v>360</v>
+      </c>
+      <c r="E40">
+        <v>370</v>
+      </c>
+      <c r="F40">
+        <v>430</v>
+      </c>
+      <c r="G40">
+        <v>550</v>
+      </c>
+      <c r="H40">
+        <v>550</v>
+      </c>
+      <c r="I40">
+        <v>550</v>
+      </c>
+      <c r="J40">
+        <v>320</v>
+      </c>
+      <c r="K40">
+        <v>320</v>
+      </c>
+      <c r="L40">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>300</v>
+      </c>
+      <c r="D41">
+        <f>C42</f>
+        <v>540</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41:L41" si="26">D42</f>
+        <v>1020</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="26"/>
+        <v>1410</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="26"/>
+        <v>1980</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="26"/>
+        <v>2790</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="26"/>
+        <v>3600</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="26"/>
+        <v>4410</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="26"/>
+        <v>4920</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="26"/>
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="C42">
+        <f>C41 - (C39*3) + (C40*3)</f>
+        <v>540</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42" si="27">D41 - (D39*3) + (D40*3)</f>
+        <v>1020</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42" si="28">E41 - (E39*3) + (E40*3)</f>
+        <v>1410</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ref="F42" si="29">F41 - (F39*3) + (F40*3)</f>
+        <v>1980</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ref="G42" si="30">G41 - (G39*3) + (G40*3)</f>
+        <v>2790</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ref="H42" si="31">H41 - (H39*3) + (H40*3)</f>
+        <v>3600</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ref="I42" si="32">I41 - (I39*3) + (I40*3)</f>
+        <v>4410</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ref="J42" si="33">J41 - (J39*3) + (J40*3)</f>
+        <v>4920</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ref="K42" si="34">K41 - (K39*3) + (K40*3)</f>
+        <v>5430</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ref="L42" si="35">L41 - (L39*3) + (L40*3)</f>
+        <v>5670</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" t="s">
+        <v>39</v>
+      </c>
+      <c r="J45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K45" t="s">
+        <v>41</v>
+      </c>
+      <c r="L45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>1000</v>
+      </c>
+      <c r="D46">
+        <v>1000</v>
+      </c>
+      <c r="E46">
+        <v>1000</v>
+      </c>
+      <c r="F46">
+        <v>1000</v>
+      </c>
+      <c r="G46">
+        <v>1000</v>
+      </c>
+      <c r="H46">
+        <v>1000</v>
+      </c>
+      <c r="I46">
+        <v>1000</v>
+      </c>
+      <c r="J46">
+        <v>1000</v>
+      </c>
+      <c r="K46">
+        <v>1000</v>
+      </c>
+      <c r="L46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>1200</v>
+      </c>
+      <c r="D47">
+        <v>1300</v>
+      </c>
+      <c r="E47">
+        <v>1400</v>
+      </c>
+      <c r="F47">
+        <v>1500</v>
+      </c>
+      <c r="G47">
+        <v>1200</v>
+      </c>
+      <c r="H47">
+        <v>1200</v>
+      </c>
+      <c r="I47">
+        <v>1200</v>
+      </c>
+      <c r="J47">
+        <v>1200</v>
+      </c>
+      <c r="K47">
+        <v>1200</v>
+      </c>
+      <c r="L47">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>1200</v>
+      </c>
+      <c r="D48">
+        <f>C49</f>
+        <v>1800</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48:L48" si="36">D49</f>
+        <v>2700</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="36"/>
+        <v>3900</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="36"/>
+        <v>5400</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="36"/>
+        <v>6000</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="36"/>
+        <v>6600</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="36"/>
+        <v>7200</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="36"/>
+        <v>7800</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="36"/>
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="C49">
+        <f>C48 - (C46*3) + (C47*3)</f>
+        <v>1800</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49" si="37">D48 - (D46*3) + (D47*3)</f>
+        <v>2700</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49" si="38">E48 - (E46*3) + (E47*3)</f>
+        <v>3900</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49" si="39">F48 - (F46*3) + (F47*3)</f>
+        <v>5400</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ref="G49" si="40">G48 - (G46*3) + (G47*3)</f>
+        <v>6000</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ref="H49" si="41">H48 - (H46*3) + (H47*3)</f>
+        <v>6600</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ref="I49" si="42">I48 - (I46*3) + (I47*3)</f>
+        <v>7200</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ref="J49" si="43">J48 - (J46*3) + (J47*3)</f>
+        <v>7800</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ref="K49" si="44">K48 - (K46*3) + (K47*3)</f>
+        <v>8400</v>
+      </c>
+      <c r="L49">
+        <f t="shared" ref="L49" si="45">L48 - (L46*3) + (L47*3)</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" t="s">
+        <v>38</v>
+      </c>
+      <c r="I51" t="s">
+        <v>39</v>
+      </c>
+      <c r="J51" t="s">
+        <v>40</v>
+      </c>
+      <c r="K51" t="s">
+        <v>41</v>
+      </c>
+      <c r="L51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>1150</v>
+      </c>
+      <c r="D52">
+        <v>1150</v>
+      </c>
+      <c r="E52">
+        <v>800</v>
+      </c>
+      <c r="F52">
+        <v>800</v>
+      </c>
+      <c r="G52">
+        <v>1150</v>
+      </c>
+      <c r="H52">
+        <v>1150</v>
+      </c>
+      <c r="I52">
+        <v>1150</v>
+      </c>
+      <c r="J52">
+        <v>1150</v>
+      </c>
+      <c r="K52">
+        <v>1150</v>
+      </c>
+      <c r="L52">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>1350</v>
+      </c>
+      <c r="D53">
+        <v>1050</v>
+      </c>
+      <c r="E53">
+        <v>1050</v>
+      </c>
+      <c r="F53">
+        <v>1050</v>
+      </c>
+      <c r="G53">
+        <v>1500</v>
+      </c>
+      <c r="H53">
+        <v>1500</v>
+      </c>
+      <c r="I53">
+        <v>1500</v>
+      </c>
+      <c r="J53">
+        <v>500</v>
+      </c>
+      <c r="K53">
+        <v>500</v>
+      </c>
+      <c r="L53">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <v>1200</v>
+      </c>
+      <c r="D54">
+        <f>C55</f>
+        <v>1800</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ref="E54:L54" si="46">D55</f>
+        <v>1500</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="46"/>
+        <v>2250</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="46"/>
+        <v>3000</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="46"/>
+        <v>4050</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="46"/>
+        <v>5100</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="46"/>
+        <v>6150</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="46"/>
+        <v>4200</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="46"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12">
+      <c r="C55">
+        <f>C54 - (C52*3) + (C53*3)</f>
+        <v>1800</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ref="D55" si="47">D54 - (D52*3) + (D53*3)</f>
+        <v>1500</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ref="E55" si="48">E54 - (E52*3) + (E53*3)</f>
+        <v>2250</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ref="F55" si="49">F54 - (F52*3) + (F53*3)</f>
+        <v>3000</v>
+      </c>
+      <c r="G55">
+        <f t="shared" ref="G55" si="50">G54 - (G52*3) + (G53*3)</f>
+        <v>4050</v>
+      </c>
+      <c r="H55">
+        <f t="shared" ref="H55" si="51">H54 - (H52*3) + (H53*3)</f>
+        <v>5100</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ref="I55" si="52">I54 - (I52*3) + (I53*3)</f>
+        <v>6150</v>
+      </c>
+      <c r="J55">
+        <f t="shared" ref="J55" si="53">J54 - (J52*3) + (J53*3)</f>
+        <v>4200</v>
+      </c>
+      <c r="K55">
+        <f t="shared" ref="K55" si="54">K54 - (K52*3) + (K53*3)</f>
+        <v>2250</v>
+      </c>
+      <c r="L55">
+        <f t="shared" ref="L55" si="55">L54 - (L52*3) + (L53*3)</f>
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" t="s">
+        <v>6</v>
+      </c>
+      <c r="J58" t="s">
+        <v>7</v>
+      </c>
+      <c r="K58" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>1000</v>
+      </c>
+      <c r="D59">
+        <v>1000</v>
+      </c>
+      <c r="E59">
+        <v>1000</v>
+      </c>
+      <c r="F59">
+        <v>1000</v>
+      </c>
+      <c r="G59">
+        <v>1000</v>
+      </c>
+      <c r="H59">
+        <v>1000</v>
+      </c>
+      <c r="I59">
+        <v>1000</v>
+      </c>
+      <c r="J59">
+        <v>1000</v>
+      </c>
+      <c r="K59">
+        <v>1000</v>
+      </c>
+      <c r="L59">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>1400</v>
+      </c>
+      <c r="D60">
+        <v>1400</v>
+      </c>
+      <c r="E60">
+        <v>1400</v>
+      </c>
+      <c r="F60">
+        <v>1400</v>
+      </c>
+      <c r="G60">
+        <v>1400</v>
+      </c>
+      <c r="H60">
+        <v>1400</v>
+      </c>
+      <c r="I60">
+        <v>1400</v>
+      </c>
+      <c r="J60">
+        <v>1400</v>
+      </c>
+      <c r="K60">
+        <v>1400</v>
+      </c>
+      <c r="L60">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>1200</v>
+      </c>
+      <c r="D61">
+        <f>C62</f>
+        <v>2400</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ref="E61:L61" si="56">D62</f>
+        <v>3600</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="56"/>
+        <v>4800</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="56"/>
+        <v>6000</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="56"/>
+        <v>7200</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="56"/>
+        <v>8400</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="56"/>
+        <v>9600</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="56"/>
+        <v>10800</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="56"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12">
+      <c r="C62">
+        <f>C61 - (C59*3) + (C60*3)</f>
+        <v>2400</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62" si="57">D61 - (D59*3) + (D60*3)</f>
+        <v>3600</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ref="E62" si="58">E61 - (E59*3) + (E60*3)</f>
+        <v>4800</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ref="F62" si="59">F61 - (F59*3) + (F60*3)</f>
+        <v>6000</v>
+      </c>
+      <c r="G62">
+        <f t="shared" ref="G62" si="60">G61 - (G59*3) + (G60*3)</f>
+        <v>7200</v>
+      </c>
+      <c r="H62">
+        <f t="shared" ref="H62" si="61">H61 - (H59*3) + (H60*3)</f>
+        <v>8400</v>
+      </c>
+      <c r="I62">
+        <f t="shared" ref="I62" si="62">I61 - (I59*3) + (I60*3)</f>
+        <v>9600</v>
+      </c>
+      <c r="J62">
+        <f t="shared" ref="J62" si="63">J61 - (J59*3) + (J60*3)</f>
+        <v>10800</v>
+      </c>
+      <c r="K62">
+        <f t="shared" ref="K62" si="64">K61 - (K59*3) + (K60*3)</f>
+        <v>12000</v>
+      </c>
+      <c r="L62">
+        <f t="shared" ref="L62" si="65">L61 - (L59*3) + (L60*3)</f>
+        <v>13200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
